--- a/Ejercicio 1/Ejercicio 1.xlsx
+++ b/Ejercicio 1/Ejercicio 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kagab\Documents\Ejercicios LyA\Ejercicio 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750C5105-0689-434C-8103-C38DE134DF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93D45A-1C7D-405A-A6E9-3579F5114E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos de Entrada" sheetId="1" r:id="rId1"/>
@@ -116,13 +116,16 @@
     <t>sumar</t>
   </si>
   <si>
-    <t>Sumar dos numeros enteros</t>
-  </si>
-  <si>
-    <t>resultado = 1 + 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La suma es: resultado </t>
+    <t xml:space="preserve">Digite el primer número: num1
+Digite el segundo número: num2
+resultado = num1 + num2
+El resultado es: resultado </t>
+  </si>
+  <si>
+    <t>resultado = num1 + num2</t>
+  </si>
+  <si>
+    <t>Sumar dos números enteros</t>
   </si>
 </sst>
 </file>
@@ -362,11 +365,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +767,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:I1048569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -783,17 +786,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -845,7 +848,7 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>0</v>
       </c>
       <c r="E4" s="4"/>
@@ -864,7 +867,7 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
       <c r="E5" s="4"/>
@@ -883,7 +886,7 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>0</v>
       </c>
       <c r="E6" s="4"/>
@@ -1060,7 +1063,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,11 +1075,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1099,7 +1102,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>30</v>
@@ -1208,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,10 +1223,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1240,10 +1243,10 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8"/>
     </row>
